--- a/TBC3每日数据2019-09-18.xlsx
+++ b/TBC3每日数据2019-09-18.xlsx
@@ -47067,13 +47067,24 @@
       <c r="AN379" s="115" t="n"/>
     </row>
     <row r="380">
-      <c r="A380" s="117" t="n"/>
-      <c r="B380" s="117" t="n"/>
+      <c r="A380" s="117" t="inlineStr">
+        <is>
+          <t>2019/09/18</t>
+        </is>
+      </c>
+      <c r="B380" s="117" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
       <c r="C380" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D380" t="n">
-        <v>0</v>
+        <v>24998</v>
+      </c>
+      <c r="D380" s="118" t="n">
+        <v>61883</v>
+      </c>
+      <c r="I380" s="118" t="n">
+        <v>30.4</v>
       </c>
     </row>
   </sheetData>
